--- a/medicine/Enfance/Géraldine_Cosneau/Géraldine_Cosneau.xlsx
+++ b/medicine/Enfance/Géraldine_Cosneau/Géraldine_Cosneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9raldine_Cosneau</t>
+          <t>Géraldine_Cosneau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Géraldine Cosneau (née à Nantes en 1968) est une auteure et illustratrice de livres pour enfants, et designer textile française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9raldine_Cosneau</t>
+          <t>Géraldine_Cosneau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a fait ses études à l'École des beaux-arts de Nantes. Elle a eu une première carrière tournée vers l'illustration dans le textile durant une dizaine d'années. Mais depuis 2009, elle se consacre essentiellement à la publication d'ouvrages jeunesse. Elle vit à Nantes[1],[2],[3],[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait ses études à l'École des beaux-arts de Nantes. Elle a eu une première carrière tournée vers l'illustration dans le textile durant une dizaine d'années. Mais depuis 2009, elle se consacre essentiellement à la publication d'ouvrages jeunesse. Elle vit à Nantes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9raldine_Cosneau</t>
+          <t>Géraldine_Cosneau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,48 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a illustré et écrit de nombreux livres[7],[8].
-Auteure et illustratrice
-Les quatre coins du monde, Lito , 2006  (ISBN 9782244021218)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a illustré et écrit de nombreux livres,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Géraldine_Cosneau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9raldine_Cosneau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les quatre coins du monde, Lito , 2006  (ISBN 9782244021218)
 Le jardin, Lito , 2006  (ISBN 9782244021225)
 Les saisons, Lito , 2006   (ISBN 9782244021232)
 L'automne, Mila Éditions ,2007   (ISBN 9782840065081)
@@ -616,7 +667,7 @@
 Toc toc toc : Les jolies maisons des contes , Fleurus , 2018  (ISBN 9782215129370)
 Un vent de panique pour Charline, Flammarion jeunesse Père castor , 2018   (ISBN 9782081420946)
 Une enquête de Loulou : Qui a mangé les carottes du potager ? , Amaterra , 2019  (ISBN 9782368561980)
-Mes premiers airs de la chanson française  ,, Gründ , 2019   (ISBN 9782324024542)
+Mes premiers airs de la chanson française   Gründ , 2019   (ISBN 9782324024542)
 Tourne , tourne , petit moulin , Milan ,2019  (ISBN 9782408009373)
 Une enquête de Loulou : Qui a volé le miel des abeilles ? , Amaterra , 2019  (ISBN 9782368561973)
 Les habits du père Noël , avec Brigitte Delpech , Flammarion jeunesse , père castor , 2019  (ISBN 9782081442597)
@@ -631,9 +682,43 @@
 Pop.pop.pop - Les animaux sauvages , Nathan , 2022  (ISBN 9782092494271)
 Pop, pop , pop les couleurs - Mon imagier Pop-Up , Nathan , 2022   (ISBN 9782092494257)
 Pop.pop.pop : Noël , Nathan , 2022  (ISBN 9782092493885)
-Pop.pop.pop - Mon imagier pop-up des animaux de la mer , Nathan , 2023  (ISBN 9782095015787)
-Illustratrice uniquement
-Liste non exhaustive.
+Pop.pop.pop - Mon imagier pop-up des animaux de la mer , Nathan , 2023  (ISBN 9782095015787)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Géraldine_Cosneau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9raldine_Cosneau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice uniquement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive.
 Chut, c'est une surprise !, Virginie Aladjidi ; Hatier jeunesse, 2011
 Un œuf pas comme les autres, Agnès de Lestrade, dans Les P'tites filles à la vanille  (ISSN 1950-4705), 52, 2011
 Bonjour petit chou, bonne nuit mon amour, Michel Piquemal, Hatier jeunesse, 2009
